--- a/learing-java/src/main/java/com/jasmine/Java高级/数据库/MySql/优化/执行计划explain.xlsx
+++ b/learing-java/src/main/java/com/jasmine/Java高级/数据库/MySql/优化/执行计划explain.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49154\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Idea\MyJavaLearing\learing-java\src\main\java\com\jasmine\Java高级\数据库\MySql\优化\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0C95BE-B2C2-4EE9-8568-A5161F0492E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC3A5AA-D75F-4F69-89F3-2CBFFCB323F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,40 +521,60 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -564,6 +584,15 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -573,50 +602,24 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -635,11 +638,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,7 +924,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -947,506 +947,517 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="9" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="9" t="s">
+      <c r="N1" s="46"/>
+      <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="33" t="s">
+      <c r="N2" s="41"/>
+      <c r="O2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="12" t="s">
         <v>33</v>
       </c>
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="26" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="36" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="12" t="s">
         <v>52</v>
       </c>
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="26" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="36" t="s">
+      <c r="I4" s="26"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="12" t="s">
         <v>35</v>
       </c>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="26" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="36" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="12" t="s">
         <v>36</v>
       </c>
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="27" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="37" t="s">
+      <c r="I6" s="26"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="34" t="s">
         <v>37</v>
       </c>
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="27" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="37"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="34"/>
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="26" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="37"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="34"/>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="26" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="37"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="28" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="38"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="38"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="26" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="38"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
     </row>
     <row r="16" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D15:V15"/>
-    <mergeCell ref="D16:V16"/>
-    <mergeCell ref="D17:V17"/>
-    <mergeCell ref="D18:V18"/>
-    <mergeCell ref="D19:V19"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="F2:F12"/>
+    <mergeCell ref="E2:E12"/>
+    <mergeCell ref="A2:B12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="M2:N12"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="O2:O12"/>
@@ -1457,22 +1468,11 @@
     <mergeCell ref="J2:J12"/>
     <mergeCell ref="K2:K12"/>
     <mergeCell ref="L2:L12"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="F2:F12"/>
-    <mergeCell ref="E2:E12"/>
-    <mergeCell ref="A2:B12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="M2:N12"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D15:V15"/>
+    <mergeCell ref="D16:V16"/>
+    <mergeCell ref="D17:V17"/>
+    <mergeCell ref="D18:V18"/>
+    <mergeCell ref="D19:V19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
